--- a/projekt adresacji.xlsx
+++ b/projekt adresacji.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>bud A</t>
   </si>
@@ -162,6 +162,93 @@
   </si>
   <si>
     <t>192.168.4.16-192.168.4.85</t>
+  </si>
+  <si>
+    <t>rodzaj urządzenie/bud/piętro/nr</t>
+  </si>
+  <si>
+    <t>S/A/0/1</t>
+  </si>
+  <si>
+    <t>drukarki</t>
+  </si>
+  <si>
+    <t>F0/1-F0/2</t>
+  </si>
+  <si>
+    <t>kamery IP</t>
+  </si>
+  <si>
+    <t>F0/3-F0/10</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>F0/11-F0/14</t>
+  </si>
+  <si>
+    <t>S/A/1/1</t>
+  </si>
+  <si>
+    <t>serwery</t>
+  </si>
+  <si>
+    <t>F0/2-F0/3</t>
+  </si>
+  <si>
+    <t>kamery</t>
+  </si>
+  <si>
+    <t>F0/4-F0/7</t>
+  </si>
+  <si>
+    <t>F0/8-F0/16</t>
+  </si>
+  <si>
+    <t>S/A/1/2</t>
+  </si>
+  <si>
+    <t>F0/1-F0/40</t>
+  </si>
+  <si>
+    <t>S/A/2/1</t>
+  </si>
+  <si>
+    <t>F0/3-F0/6</t>
+  </si>
+  <si>
+    <t>S/A/2/2</t>
+  </si>
+  <si>
+    <t>F0/1-F0/37</t>
+  </si>
+  <si>
+    <t>S/B/0/1</t>
+  </si>
+  <si>
+    <t>accsess point</t>
+  </si>
+  <si>
+    <t>F0/15</t>
+  </si>
+  <si>
+    <t>F0/3-F0/4</t>
+  </si>
+  <si>
+    <t>F0/5-F0/12</t>
+  </si>
+  <si>
+    <t>F0/13</t>
+  </si>
+  <si>
+    <t>S/B/0/2</t>
+  </si>
+  <si>
+    <t>F0/40</t>
+  </si>
+  <si>
+    <t>F0/14-43</t>
   </si>
 </sst>
 </file>
@@ -514,287 +601,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H36"/>
+  <dimension ref="A2:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>32</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>150</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>84</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>150</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
         <v>25</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
         <v>33</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
         <v>38</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
         <v>39</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
         <v>27</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/projekt adresacji.xlsx
+++ b/projekt adresacji.xlsx
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
